--- a/EHS2019/EHS/ExcelGenerator/Template/eHSVF005-VaccinationFileTemplate-VSS-MMR.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSVF005-VaccinationFileTemplate-VSS-MMR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\EHS2019\EHS\ExcelGenerator\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swl109\Documents\GitHub\EHS\EHS2019\EHS\ExcelGenerator\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -207,7 +207,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,7 +223,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -237,17 +237,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd\ mmm\ yyyy\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -255,35 +255,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -325,7 +325,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -333,7 +333,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -347,39 +347,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="HA_MingLiu"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -388,7 +383,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -402,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -411,7 +406,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -547,8 +542,30 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -912,7 +929,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -940,10 +957,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -967,25 +984,43 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,87 +1029,69 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1083,7 +1100,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1096,36 +1113,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1175,7 +1192,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
@@ -1203,7 +1220,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1219,11 +1236,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,16 +1267,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1267,20 +1281,20 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="20" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="20" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="20" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,6 +1318,19 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="176">
@@ -1793,7 +1820,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" style="10" customWidth="1"/>
@@ -1801,63 +1828,64 @@
     <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="15.75">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="16" customFormat="1">
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="17"/>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1">
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="19"/>
     </row>
-    <row r="12" spans="1:3" s="13" customFormat="1">
+    <row r="12" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1876,82 +1904,82 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="35" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="35" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="35"/>
-    <col min="14" max="14" width="13.140625" style="35" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="35" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="35"/>
-    <col min="18" max="18" width="10.5703125" style="35" customWidth="1"/>
-    <col min="19" max="19" width="12" style="36" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="35" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="35" customWidth="1"/>
-    <col min="22" max="22" width="12" style="36" customWidth="1"/>
-    <col min="23" max="26" width="9.140625" style="35"/>
-    <col min="27" max="27" width="19.5703125" style="35" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="35"/>
-    <col min="29" max="29" width="12.85546875" style="33" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="3" width="8" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="34" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="34"/>
+    <col min="14" max="14" width="13.140625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="51" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="34"/>
+    <col min="18" max="18" width="10.5703125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="12" style="35" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" style="34" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="34" customWidth="1"/>
+    <col min="22" max="22" width="12" style="35" customWidth="1"/>
+    <col min="23" max="26" width="9.140625" style="34"/>
+    <col min="27" max="27" width="19.5703125" style="34" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="34"/>
+    <col min="29" max="29" width="12.85546875" style="32" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="23" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:29" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="22"/>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="48"/>
-    </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="90" customHeight="1">
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="47"/>
+    </row>
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -1973,16 +2001,16 @@
         <v>55</v>
       </c>
       <c r="K2" s="25"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="41" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="53" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="26" t="s">
@@ -2018,835 +2046,836 @@
       <c r="Z2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="41" t="s">
         <v>53</v>
       </c>
       <c r="AC2" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="K3" s="32"/>
-      <c r="O3" s="30"/>
-      <c r="S3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="33"/>
-    </row>
-    <row r="4" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="K4" s="32"/>
-      <c r="O4" s="30"/>
-      <c r="S4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="33"/>
-    </row>
-    <row r="5" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="K5" s="32"/>
-      <c r="O5" s="30"/>
-      <c r="S5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="33"/>
-    </row>
-    <row r="6" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="K6" s="32"/>
-      <c r="O6" s="30"/>
-      <c r="S6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="33"/>
-    </row>
-    <row r="7" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="K7" s="32"/>
-      <c r="O7" s="30"/>
-      <c r="S7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="33"/>
-    </row>
-    <row r="8" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="K8" s="32"/>
-      <c r="O8" s="30"/>
-      <c r="S8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="33"/>
-    </row>
-    <row r="9" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="K9" s="32"/>
-      <c r="O9" s="30"/>
-      <c r="S9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="33"/>
-    </row>
-    <row r="10" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="K10" s="32"/>
-      <c r="O10" s="30"/>
-      <c r="S10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="33"/>
-    </row>
-    <row r="11" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="K11" s="32"/>
-      <c r="O11" s="30"/>
-      <c r="S11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="33"/>
-    </row>
-    <row r="12" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="K12" s="32"/>
-      <c r="O12" s="30"/>
-      <c r="S12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="33"/>
-    </row>
-    <row r="13" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="K13" s="32"/>
-      <c r="O13" s="30"/>
-      <c r="S13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="33"/>
-    </row>
-    <row r="14" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="K14" s="32"/>
-      <c r="O14" s="30"/>
-      <c r="S14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="33"/>
-    </row>
-    <row r="15" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="K15" s="32"/>
-      <c r="O15" s="30"/>
-      <c r="S15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="33"/>
-    </row>
-    <row r="16" spans="1:29" s="29" customFormat="1" ht="15.75">
-      <c r="D16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="K16" s="32"/>
-      <c r="O16" s="30"/>
-      <c r="S16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="33"/>
-    </row>
-    <row r="17" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="K17" s="32"/>
-      <c r="O17" s="30"/>
-      <c r="S17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="33"/>
-    </row>
-    <row r="18" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D18" s="30"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="K18" s="32"/>
-      <c r="O18" s="30"/>
-      <c r="S18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="33"/>
-    </row>
-    <row r="19" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D19" s="30"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="K19" s="32"/>
-      <c r="O19" s="30"/>
-      <c r="S19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="33"/>
-    </row>
-    <row r="20" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D20" s="30"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="K20" s="32"/>
-      <c r="O20" s="30"/>
-      <c r="S20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="33"/>
-    </row>
-    <row r="21" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D21" s="30"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="K21" s="32"/>
-      <c r="O21" s="30"/>
-      <c r="S21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="33"/>
-    </row>
-    <row r="22" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D22" s="30"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="K22" s="32"/>
-      <c r="O22" s="30"/>
-      <c r="S22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="33"/>
-    </row>
-    <row r="23" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D23" s="30"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="K23" s="32"/>
-      <c r="O23" s="30"/>
-      <c r="S23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="33"/>
-    </row>
-    <row r="24" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D24" s="30"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="K24" s="32"/>
-      <c r="O24" s="30"/>
-      <c r="S24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="33"/>
-    </row>
-    <row r="25" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D25" s="30"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="K25" s="32"/>
-      <c r="O25" s="30"/>
-      <c r="S25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="33"/>
-    </row>
-    <row r="26" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D26" s="30"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="K26" s="32"/>
-      <c r="O26" s="30"/>
-      <c r="S26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="33"/>
-    </row>
-    <row r="27" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D27" s="30"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="K27" s="32"/>
-      <c r="O27" s="30"/>
-      <c r="S27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="33"/>
-    </row>
-    <row r="28" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D28" s="30"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="K28" s="32"/>
-      <c r="O28" s="30"/>
-      <c r="S28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="33"/>
-    </row>
-    <row r="29" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D29" s="30"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="K29" s="32"/>
-      <c r="O29" s="30"/>
-      <c r="S29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="33"/>
-    </row>
-    <row r="30" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D30" s="30"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="K30" s="32"/>
-      <c r="O30" s="30"/>
-      <c r="S30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="33"/>
-    </row>
-    <row r="31" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D31" s="30"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="K31" s="32"/>
-      <c r="O31" s="30"/>
-      <c r="S31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="33"/>
-    </row>
-    <row r="32" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D32" s="30"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="32"/>
-      <c r="O32" s="30"/>
-      <c r="S32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="33"/>
-    </row>
-    <row r="33" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D33" s="30"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="K33" s="32"/>
-      <c r="O33" s="30"/>
-      <c r="S33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="33"/>
-    </row>
-    <row r="34" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D34" s="30"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="K34" s="32"/>
-      <c r="O34" s="30"/>
-      <c r="S34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="33"/>
-    </row>
-    <row r="35" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D35" s="30"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="K35" s="32"/>
-      <c r="O35" s="30"/>
-      <c r="S35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="33"/>
-    </row>
-    <row r="36" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D36" s="30"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="K36" s="32"/>
-      <c r="O36" s="30"/>
-      <c r="S36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="33"/>
-    </row>
-    <row r="37" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D37" s="30"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="K37" s="32"/>
-      <c r="O37" s="30"/>
-      <c r="S37" s="33"/>
-      <c r="V37" s="33"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="33"/>
-    </row>
-    <row r="38" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D38" s="30"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="K38" s="32"/>
-      <c r="O38" s="30"/>
-      <c r="S38" s="33"/>
-      <c r="V38" s="33"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="33"/>
-    </row>
-    <row r="39" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D39" s="30"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="K39" s="32"/>
-      <c r="O39" s="30"/>
-      <c r="S39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="33"/>
-    </row>
-    <row r="40" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D40" s="30"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="K40" s="32"/>
-      <c r="O40" s="30"/>
-      <c r="S40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="33"/>
-    </row>
-    <row r="41" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D41" s="30"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="K41" s="32"/>
-      <c r="O41" s="30"/>
-      <c r="S41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="33"/>
-    </row>
-    <row r="42" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D42" s="30"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="K42" s="32"/>
-      <c r="O42" s="30"/>
-      <c r="S42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="33"/>
-    </row>
-    <row r="43" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D43" s="30"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="K43" s="32"/>
-      <c r="O43" s="30"/>
-      <c r="S43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="33"/>
-    </row>
-    <row r="44" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D44" s="30"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="K44" s="32"/>
-      <c r="O44" s="30"/>
-      <c r="S44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="33"/>
-    </row>
-    <row r="45" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D45" s="30"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="K45" s="32"/>
-      <c r="O45" s="30"/>
-      <c r="S45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="33"/>
-    </row>
-    <row r="46" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D46" s="30"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="K46" s="32"/>
-      <c r="O46" s="30"/>
-      <c r="S46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="33"/>
-    </row>
-    <row r="47" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D47" s="30"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="K47" s="32"/>
-      <c r="O47" s="30"/>
-      <c r="S47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="33"/>
-    </row>
-    <row r="48" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D48" s="30"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="K48" s="32"/>
-      <c r="O48" s="30"/>
-      <c r="S48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="33"/>
-    </row>
-    <row r="49" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D49" s="30"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="K49" s="32"/>
-      <c r="O49" s="30"/>
-      <c r="S49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="33"/>
-    </row>
-    <row r="50" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D50" s="30"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="K50" s="32"/>
-      <c r="O50" s="30"/>
-      <c r="S50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="33"/>
-    </row>
-    <row r="51" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D51" s="30"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="K51" s="32"/>
-      <c r="O51" s="30"/>
-      <c r="S51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="33"/>
-    </row>
-    <row r="52" spans="4:29" s="29" customFormat="1" ht="15.75">
-      <c r="D52" s="30"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="K52" s="32"/>
-      <c r="O52" s="30"/>
-      <c r="S52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="33"/>
+    <row r="3" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="50"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="K3" s="31"/>
+      <c r="O3" s="50"/>
+      <c r="S3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="32"/>
+    </row>
+    <row r="4" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="50"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="K4" s="31"/>
+      <c r="O4" s="50"/>
+      <c r="S4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="32"/>
+    </row>
+    <row r="5" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="50"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="K5" s="31"/>
+      <c r="O5" s="50"/>
+      <c r="S5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="32"/>
+    </row>
+    <row r="6" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="50"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="K6" s="31"/>
+      <c r="O6" s="50"/>
+      <c r="S6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="32"/>
+    </row>
+    <row r="7" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="50"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="K7" s="31"/>
+      <c r="O7" s="50"/>
+      <c r="S7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="32"/>
+    </row>
+    <row r="8" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="50"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="K8" s="31"/>
+      <c r="O8" s="50"/>
+      <c r="S8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="32"/>
+    </row>
+    <row r="9" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="50"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="K9" s="31"/>
+      <c r="O9" s="50"/>
+      <c r="S9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="32"/>
+    </row>
+    <row r="10" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="50"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="K10" s="31"/>
+      <c r="O10" s="50"/>
+      <c r="S10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="32"/>
+    </row>
+    <row r="11" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="50"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="K11" s="31"/>
+      <c r="O11" s="50"/>
+      <c r="S11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="32"/>
+    </row>
+    <row r="12" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="50"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="K12" s="31"/>
+      <c r="O12" s="50"/>
+      <c r="S12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="32"/>
+    </row>
+    <row r="13" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="50"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="K13" s="31"/>
+      <c r="O13" s="50"/>
+      <c r="S13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="32"/>
+    </row>
+    <row r="14" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="50"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="K14" s="31"/>
+      <c r="O14" s="50"/>
+      <c r="S14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="32"/>
+    </row>
+    <row r="15" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="50"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="K15" s="31"/>
+      <c r="O15" s="50"/>
+      <c r="S15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="32"/>
+    </row>
+    <row r="16" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="50"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="K16" s="31"/>
+      <c r="O16" s="50"/>
+      <c r="S16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="32"/>
+    </row>
+    <row r="17" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="50"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="K17" s="31"/>
+      <c r="O17" s="50"/>
+      <c r="S17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="32"/>
+    </row>
+    <row r="18" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="50"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="K18" s="31"/>
+      <c r="O18" s="50"/>
+      <c r="S18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="32"/>
+    </row>
+    <row r="19" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="50"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="K19" s="31"/>
+      <c r="O19" s="50"/>
+      <c r="S19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="32"/>
+    </row>
+    <row r="20" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="50"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="K20" s="31"/>
+      <c r="O20" s="50"/>
+      <c r="S20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="32"/>
+    </row>
+    <row r="21" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="50"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="K21" s="31"/>
+      <c r="O21" s="50"/>
+      <c r="S21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="32"/>
+    </row>
+    <row r="22" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="50"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="K22" s="31"/>
+      <c r="O22" s="50"/>
+      <c r="S22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="32"/>
+    </row>
+    <row r="23" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="50"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="K23" s="31"/>
+      <c r="O23" s="50"/>
+      <c r="S23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="32"/>
+    </row>
+    <row r="24" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="50"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="K24" s="31"/>
+      <c r="O24" s="50"/>
+      <c r="S24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="32"/>
+    </row>
+    <row r="25" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="50"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="K25" s="31"/>
+      <c r="O25" s="50"/>
+      <c r="S25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="32"/>
+    </row>
+    <row r="26" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="50"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="K26" s="31"/>
+      <c r="O26" s="50"/>
+      <c r="S26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="32"/>
+    </row>
+    <row r="27" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="50"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="K27" s="31"/>
+      <c r="O27" s="50"/>
+      <c r="S27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="32"/>
+    </row>
+    <row r="28" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="50"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="K28" s="31"/>
+      <c r="O28" s="50"/>
+      <c r="S28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="32"/>
+    </row>
+    <row r="29" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="50"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="K29" s="31"/>
+      <c r="O29" s="50"/>
+      <c r="S29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="32"/>
+    </row>
+    <row r="30" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="50"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="K30" s="31"/>
+      <c r="O30" s="50"/>
+      <c r="S30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="32"/>
+    </row>
+    <row r="31" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="50"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="K31" s="31"/>
+      <c r="O31" s="50"/>
+      <c r="S31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="32"/>
+    </row>
+    <row r="32" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="50"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="K32" s="31"/>
+      <c r="O32" s="50"/>
+      <c r="S32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="32"/>
+    </row>
+    <row r="33" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="50"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="K33" s="31"/>
+      <c r="O33" s="50"/>
+      <c r="S33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="32"/>
+    </row>
+    <row r="34" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="50"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="K34" s="31"/>
+      <c r="O34" s="50"/>
+      <c r="S34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="32"/>
+    </row>
+    <row r="35" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="50"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="K35" s="31"/>
+      <c r="O35" s="50"/>
+      <c r="S35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="32"/>
+    </row>
+    <row r="36" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="50"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="K36" s="31"/>
+      <c r="O36" s="50"/>
+      <c r="S36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="32"/>
+    </row>
+    <row r="37" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="50"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="K37" s="31"/>
+      <c r="O37" s="50"/>
+      <c r="S37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="32"/>
+    </row>
+    <row r="38" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="50"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="K38" s="31"/>
+      <c r="O38" s="50"/>
+      <c r="S38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="32"/>
+    </row>
+    <row r="39" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="50"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="K39" s="31"/>
+      <c r="O39" s="50"/>
+      <c r="S39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="32"/>
+    </row>
+    <row r="40" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="50"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="K40" s="31"/>
+      <c r="O40" s="50"/>
+      <c r="S40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="32"/>
+    </row>
+    <row r="41" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="50"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="K41" s="31"/>
+      <c r="O41" s="50"/>
+      <c r="S41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="32"/>
+    </row>
+    <row r="42" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="50"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="K42" s="31"/>
+      <c r="O42" s="50"/>
+      <c r="S42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="32"/>
+    </row>
+    <row r="43" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="50"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="K43" s="31"/>
+      <c r="O43" s="50"/>
+      <c r="S43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="32"/>
+    </row>
+    <row r="44" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="50"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="K44" s="31"/>
+      <c r="O44" s="50"/>
+      <c r="S44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="32"/>
+    </row>
+    <row r="45" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="50"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="K45" s="31"/>
+      <c r="O45" s="50"/>
+      <c r="S45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="32"/>
+    </row>
+    <row r="46" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="50"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="K46" s="31"/>
+      <c r="O46" s="50"/>
+      <c r="S46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="32"/>
+    </row>
+    <row r="47" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="50"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="K47" s="31"/>
+      <c r="O47" s="50"/>
+      <c r="S47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="32"/>
+    </row>
+    <row r="48" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="50"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="K48" s="31"/>
+      <c r="O48" s="50"/>
+      <c r="S48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="33"/>
+      <c r="AC48" s="32"/>
+    </row>
+    <row r="49" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="50"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="K49" s="31"/>
+      <c r="O49" s="50"/>
+      <c r="S49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="32"/>
+    </row>
+    <row r="50" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="50"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="K50" s="31"/>
+      <c r="O50" s="50"/>
+      <c r="S50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="32"/>
+    </row>
+    <row r="51" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="50"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="K51" s="31"/>
+      <c r="O51" s="50"/>
+      <c r="S51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="32"/>
+    </row>
+    <row r="52" spans="4:29" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="50"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="K52" s="31"/>
+      <c r="O52" s="50"/>
+      <c r="S52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -2875,19 +2904,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2895,7 +2924,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2903,7 +2932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2911,7 +2940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2919,7 +2948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2927,7 +2956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2935,7 +2964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2943,7 +2972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2951,7 +2980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -2959,7 +2988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -2967,7 +2996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="18" customFormat="1">
+    <row r="13" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
@@ -2975,7 +3004,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -2984,6 +3013,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -3002,82 +3032,83 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" style="38" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="39.85546875" style="37" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-    </row>
-    <row r="5" spans="1:3" ht="22.5">
-      <c r="A5" s="39" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+    </row>
+    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.5">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="40"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="40"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="40"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="40"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="40"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="40"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="40"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="40"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="40"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="40"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="40"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="40"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="40"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="40"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="40"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="40"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="40"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>